--- a/src/main/resources/excels/android/Check promotion at product detail screen.xlsx
+++ b/src/main/resources/excels/android/Check promotion at product detail screen.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="62">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -819,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="114" x14ac:dyDescent="0.25">
@@ -859,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="91.2" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="91.2" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="102.6" x14ac:dyDescent="0.25">
